--- a/FoundData/AustraliaDataInvestigation.xlsx
+++ b/FoundData/AustraliaDataInvestigation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86520170-547A-A84F-B720-DCCBED1F65F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC16AEF-B60D-4042-B334-B6DB1ADBF2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC6647D8-166C-B54D-8748-E6CC5D4ECB72}"/>
   </bookViews>
@@ -134,15 +134,6 @@
     <t>1982-1983</t>
   </si>
   <si>
-    <t xml:space="preserve">One of the worst droughts in Australias history occurred between 1982-1983. Numbers are not clear about exactly how many cattle were killed during this period with estimates ranging from a few million to up to 14 million. FAOSTAT does show a decrease in cattle population for this year though which is evidence that FAOSTAT has good data for this year. </t>
-  </si>
-  <si>
-    <t>https://knowledge.aidr.org.au/resources/environment-eastern-australia-drought/#:~:text=From%20April%201982%20to%20March,massive%20crop%20and%20livestock%20losses.</t>
-  </si>
-  <si>
-    <t>One of the worst droughts in Australias history occurred between 1982-1983. Numbers are not clear about exactly how many sheep were killed during this period with estimates ranging up to 86 million sheep. FAOSTAT does show a decrease in sheep population for this year though which is evidence that FAOSTAT has good data for this year. However, FAOSTAT shows a minor drop in population but the Australian Institude for Disaster Resilience says the death count was closer to 86 million. 86 million sounds exessive but FAOSTAT is not even close to a drop that large which raises suspition in FAOSTATs data.</t>
-  </si>
-  <si>
     <t>1996-2012</t>
   </si>
   <si>
@@ -155,18 +146,6 @@
     <t>WOAH</t>
   </si>
   <si>
-    <t>The Big Dry, also known the the millenium drought was one of the most severe droughts ever recorded in Australia. It lasted for more than ten years and paired with the Australian water rights commoditization made it hard for farmers to feed their sheep hay and grass as there was less water to grow the hay and grass. This increases the cost of feed for sheep and makes it more expensive to raise them putting pressure on farmers. You can see the impact of this because during 1996-2012 time series the sheep population drops by 90 million sheep. Sheep was already on the decline from a high in 1990 but the drough had to play a part in reducing the number of sheep. So this is good evidence that FAOSTAT has good data for this time frame because it's showing a decline in the population of sheep which makes sense given the drought occuring at the time.</t>
-  </si>
-  <si>
-    <t>The Big Dry, also known the the millenium drought was one of the most severe droughts ever recorded in Australia. It lasted for more than ten years and paired with the Australian water rights commoditization made it hard for farmers to feed their sheep hay and grass as there was less water to grow the hay and grass. This increases the cost of feed for sheep and makes it more expensive to raise them putting pressure on farmers. You can see the impact of this because during 2005-2012 time series the sheep population drops by ~25 million sheep. So this is good evidence that WOAH has good data for this time frame because it's showing a decline in the population of sheep which makes sense given the drought occuring at the time.</t>
-  </si>
-  <si>
-    <t>The Big Dry, also known the the millenium drought was one of the most severe droughts ever recorded in Australia. It lasted for more than ten years and paired with the Australian water rights commoditization made it hard for farmers to feed their cattle hay and grass as there was less water to grow the hay and grass. This increases the cost of feed for cattle and makes it more expensive to raise them putting pressure on farmers. What's interesting is you don't see any impact of this on the population numbers reported by FAOSTAT. The population of cattle remains flat for this period of time. Given the increase in costs to raise cattle, it would be more likely that the population would decrease over this time but that's not what we see for the data supplied by FAOSTAT.</t>
-  </si>
-  <si>
-    <t>The Big Dry, also known the the millenium drought was one of the most severe droughts ever recorded in Australia. It lasted for more than ten years and paired with the Australian water rights commoditization made it hard for farmers to feed their cattle hay and grass as there was less water to grow the hay and grass. This increases the cost of feed for cattle and makes it more expensive to raise them putting pressure on farmers. What's interesting is you don't see any impact of this on the population numbers reported by WOAH. The population of cattle remains flat for this period of time. Given the increase in costs to raise cattle, it would be more likely that the population would decrease over this time but that's not what we see for the data supplied by WOAH.</t>
-  </si>
-  <si>
     <t xml:space="preserve">An article by Meat &amp; Livestock Australia said there is 24.4 million cattle in Australia in 2021. FAOSTAT states there are 23.5 million. Given that they are one year apart and less than a million cattle apart. This is good evidence that FAOSTAT is correct since gaining .9 million cattle in a year is a very reasonable growth for a full year given this population size. </t>
   </si>
   <si>
@@ -176,16 +155,37 @@
     <t>An article by Meat &amp; Livestock Australia said there is 24.4 million sheep in Australia in 2021. FAOSTAT states there are 63.5 million. Though this population jump is possible, it is unlikely. The population of sheep has been decreasing almost every year since 1990 and the last time it increased was in 2017 and only by 4.5 million. So it's possible but more likely that it went down for 2021 not up.</t>
   </si>
   <si>
-    <t xml:space="preserve">A paper titled 'Australian cattle herd: a new perspective on structure, performance and production' investigated how many cattle were being killed, and compared it to the amount being born, died from natural causes, and average increase in cow size and determined that the population of cattle being surveyed was actually lower than the true population in Australia. This could be because dude to large large ranches and herd sizes, it being hard to measure how many there are, or ranchers want to lower their taxes by reporting a smaller number that what they actually have. </t>
-  </si>
-  <si>
     <t>Cattle, Sheep, Chickens, Pigs</t>
   </si>
   <si>
-    <t xml:space="preserve">The 2019 bush fires in australia were some of the worst forest fires ever recorded killing ~3 billion wildlife. The amount of livestock killed was actually much lower with only 56,000 livestock being killed or euthanized in the fire. This means we wouldn't expect to see a large decrease in livestock population for this year. Observing FAOSTATs data we see that most livestock had a slight decrease for this year, but most of them were already on a declining population path so this makes sense. </t>
-  </si>
-  <si>
     <t>https://www.frontiersin.org/articles/10.3389/fvets.2022.790556/full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the worst droughts in Australia's history occurred between 1982-1983. Numbers are not clear about exactly how many cattle were killed during this period with estimates ranging from a few million to up to 14 million. FAOSTAT does show a decrease in cattle population for this year though which is evidence that FAOSTAT has good data for this year. </t>
+  </si>
+  <si>
+    <t>https://knowledge.aidr.org.au/resources/environment-eastern-Australia-drought/#:~:text=From%20April%201982%20to%20March,massive%20crop%20and%20livestock%20losses.</t>
+  </si>
+  <si>
+    <t>One of the worst droughts in Australia's history occurred between 1982-1983. Numbers are not clear about exactly how many sheep were killed during this period with estimates ranging up to 86 million sheep. FAOSTAT does show a decrease in sheep population for this year though which is evidence that FAOSTAT has good data for this year. However, FAOSTAT shows a minor drop in population but the Australian Institute for Disaster Resilience says the death count was closer to 86 million. 86 million sounds excessive but FAOSTAT is not even close to a drop that large which raises suspicion in FAOSTATs data.</t>
+  </si>
+  <si>
+    <t>The Big Dry, also known the  millennium drought was one of the most severe droughts ever recorded in Australia. It lasted for more than ten years and paired with the Australian water rights commoditization made it hard for farmers to feed their sheep hay and grass as there was less water to grow the hay and grass. This increases the cost of feed for sheep and makes it more expensive to raise them putting pressure on farmers. You can see the impact of this because during 1996-2012 time series the sheep population drops by 90 million sheep. Sheep was already on the decline from a high in 1990 but the drought had to play a part in reducing the number of sheep. So this is good evidence that FAOSTAT has good data for this time frame because it's showing a decline in the population of sheep which makes sense given the drought occurring at the time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A paper titled 'Australian cattle herd: a new perspective on structure, performance and production' investigated how many cattle were being killed, and compared it to the amount being born, died from natural causes, and average increase in cow size and determined that the population of cattle being surveyed was actually lower than the true population in Australia. This could be because dude to large  ranches and herd sizes, it being hard to measure how many there are, or ranchers want to lower their taxes by reporting a smaller number that what they actually have. </t>
+  </si>
+  <si>
+    <t>The Big Dry, also known the  millennium drought was one of the most severe droughts ever recorded in Australia. It lasted for more than ten years and paired with the Australian water rights commoditization made it hard for farmers to feed their sheep hay and grass as there was less water to grow the hay and grass. This increases the cost of feed for sheep and makes it more expensive to raise them putting pressure on farmers. You can see the impact of this because during 2005-2012 time series the sheep population drops by ~25 million sheep. So this is good evidence that WOAH has good data for this time frame because it's showing a decline in the population of sheep which makes sense given the drought occurring at the time.</t>
+  </si>
+  <si>
+    <t>The Big Dry, also known the  millennium drought was one of the most severe droughts ever recorded in Australia. It lasted for more than ten years and paired with the Australian water rights commoditization made it hard for farmers to feed their cattle hay and grass as there was less water to grow the hay and grass. This increases the cost of feed for cattle and makes it more expensive to raise them putting pressure on farmers. What's interesting is you don't see any impact of this on the population numbers reported by FAOSTAT. The population of cattle remains flat for this period of time. Given the increase in costs to raise cattle, it would be more likely that the population would decrease over this time but that's not what we see for the data supplied by FAOSTAT.</t>
+  </si>
+  <si>
+    <t>The Big Dry, also known the  millennium drought was one of the most severe droughts ever recorded in Australia. It lasted for more than ten years and paired with the Australian water rights commoditization made it hard for farmers to feed their cattle hay and grass as there was less water to grow the hay and grass. This increases the cost of feed for cattle and makes it more expensive to raise them putting pressure on farmers. What's interesting is you don't see any impact of this on the population numbers reported by WOAH. The population of cattle remains flat for this period of time. Given the increase in costs to raise cattle, it would be more likely that the population would decrease over this time but that's not what we see for the data supplied by WOAH.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 2019 bush fires in Australia were some of the worst forest fires ever recorded killing ~3 billion wildlife. The amount of livestock killed was actually much lower with only 56,000 livestock being killed or euthanized in the fire. This means we wouldn't expect to see a large decrease in livestock population for this year. Observing FAOSTATs data we see that most livestock had a slight decrease for this year, but most of them were already on a declining population path so this makes sense. </t>
   </si>
 </sst>
 </file>
@@ -252,9 +252,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -292,7 +292,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -398,7 +398,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -540,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C4D50-A000-3A41-8E78-C9BD95D1613D}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="178" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="F26" sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -922,10 +922,10 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -945,10 +945,10 @@
         <v>4.5</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -971,7 +971,7 @@
         <v>28</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s">
         <v>30</v>
@@ -1014,10 +1014,10 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1037,10 +1037,10 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -1060,10 +1060,10 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1097,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -1106,10 +1106,10 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1120,19 +1120,19 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1140,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>2019</v>
@@ -1152,10 +1152,10 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
